--- a/test/Product.xlsx
+++ b/test/Product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Projects\2020\Zen\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F45128-D493-4E45-89CE-5356663C6E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DEF61A-46D9-40DE-8245-E8CAAE35E0EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="690" windowWidth="17145" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="114">
   <si>
     <t>6954644609058</t>
   </si>
@@ -342,6 +342,36 @@
   </si>
   <si>
     <t>Omniva</t>
+  </si>
+  <si>
+    <t>FELIX</t>
+  </si>
+  <si>
+    <t>BECKY</t>
+  </si>
+  <si>
+    <t>CHLOE</t>
+  </si>
+  <si>
+    <t>TIMO</t>
+  </si>
+  <si>
+    <t>DANNY</t>
+  </si>
+  <si>
+    <t>ZAZU DANNY</t>
+  </si>
+  <si>
+    <t>ZAZU FELIX</t>
+  </si>
+  <si>
+    <t>ZAZU BECKY</t>
+  </si>
+  <si>
+    <t>ZAZU CHLOE</t>
+  </si>
+  <si>
+    <t>ZAZU TIMO</t>
   </si>
 </sst>
 </file>
@@ -731,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69:F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3">
-        <v>780</v>
+        <v>589</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>102</v>
@@ -816,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>644</v>
+        <v>394</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>102</v>
@@ -842,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>102</v>
@@ -851,7 +881,7 @@
         <v>10.14</v>
       </c>
       <c r="H4" s="3">
-        <v>34.99</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>102</v>
@@ -894,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>102</v>
@@ -920,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>102</v>
@@ -972,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>102</v>
@@ -998,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>102</v>
@@ -1024,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>102</v>
@@ -1076,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>102</v>
@@ -1102,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>102</v>
@@ -1128,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>102</v>
@@ -1154,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>102</v>
@@ -1180,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>102</v>
@@ -1284,7 +1314,7 @@
         <v>101</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>102</v>
@@ -1293,7 +1323,7 @@
         <v>14.25</v>
       </c>
       <c r="H21">
-        <v>34.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1319,7 +1349,7 @@
         <v>14.25</v>
       </c>
       <c r="H22">
-        <v>34.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,7 +1375,7 @@
         <v>14.25</v>
       </c>
       <c r="H23">
-        <v>34.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="H24">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1397,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="H25">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1423,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="H26">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,7 +1470,7 @@
         <v>101</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>102</v>
@@ -1449,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="H27">
-        <v>30.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,7 +1496,7 @@
         <v>101</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>102</v>
@@ -1475,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="H28">
-        <v>30.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,7 +1522,7 @@
         <v>101</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>102</v>
@@ -1501,7 +1531,7 @@
         <v>11</v>
       </c>
       <c r="H29">
-        <v>30.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1527,7 +1557,7 @@
         <v>12.83</v>
       </c>
       <c r="H30">
-        <v>30.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1553,7 +1583,7 @@
         <v>12.83</v>
       </c>
       <c r="H31">
-        <v>30.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1579,7 +1609,7 @@
         <v>12.83</v>
       </c>
       <c r="H32">
-        <v>30.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,7 +1626,7 @@
         <v>101</v>
       </c>
       <c r="E33" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>102</v>
@@ -1605,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="H33">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,7 +1652,7 @@
         <v>101</v>
       </c>
       <c r="E34" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>102</v>
@@ -1631,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="H34">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,7 +1678,7 @@
         <v>101</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>102</v>
@@ -1657,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="H35">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1683,7 +1713,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H36">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,7 +1739,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H37">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1735,7 +1765,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H38">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,7 +1791,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H39">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,7 +1817,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H40">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1813,7 +1843,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H41">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,7 +1869,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H42">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1865,7 +1895,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H43">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1891,7 +1921,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H44">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,7 +1938,7 @@
         <v>101</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>102</v>
@@ -1917,7 +1947,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H45">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,7 +1973,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H46">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1953,7 +1983,7 @@
       <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -1969,7 +1999,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H47">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1977,25 +2007,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="3">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="3">
-        <v>10</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G48" s="2">
-        <v>10.14</v>
-      </c>
-      <c r="H48" s="3">
-        <v>41.99</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H48">
+        <v>34.99</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,25 +2033,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E49" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G49" s="2">
-        <v>10.14</v>
-      </c>
-      <c r="H49" s="3">
-        <v>41.99</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H49">
+        <v>34.99</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,24 +2059,24 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E50" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G50" s="2">
-        <v>10.14</v>
-      </c>
-      <c r="H50" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H50">
         <v>34.99</v>
       </c>
     </row>
@@ -2055,25 +2085,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2</v>
+        <v>106</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E51" s="3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G51" s="2">
-        <v>10.14</v>
-      </c>
-      <c r="H51" s="3">
-        <v>41.99</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H51">
+        <v>34.99</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2081,25 +2111,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
+        <v>107</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E52" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G52" s="2">
-        <v>11.79339</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H52">
-        <v>41.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2107,24 +2137,24 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G53" s="2">
-        <v>11.79339</v>
-      </c>
-      <c r="H53">
+        <v>10.14</v>
+      </c>
+      <c r="H53" s="3">
         <v>41.99</v>
       </c>
     </row>
@@ -2133,25 +2163,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
         <v>21</v>
       </c>
-      <c r="C54" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3">
-        <v>25</v>
-      </c>
       <c r="F54" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G54" s="2">
-        <v>11.79339</v>
-      </c>
-      <c r="H54">
-        <v>34.99</v>
+        <v>10.14</v>
+      </c>
+      <c r="H54" s="3">
+        <v>41.99</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2159,24 +2189,24 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
       </c>
       <c r="E55" s="3">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G55" s="2">
-        <v>11.79339</v>
-      </c>
-      <c r="H55">
+        <v>10.14</v>
+      </c>
+      <c r="H55" s="3">
         <v>41.99</v>
       </c>
     </row>
@@ -2185,25 +2215,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G56" s="2">
-        <v>18.195515999999998</v>
-      </c>
-      <c r="H56">
-        <v>61.99</v>
+        <v>10.14</v>
+      </c>
+      <c r="H56" s="3">
+        <v>41.99</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,25 +2241,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G57" s="2">
-        <v>18.195515999999998</v>
+        <v>11.79339</v>
       </c>
       <c r="H57">
-        <v>61.99</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2237,25 +2267,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G58" s="2">
-        <v>18.195515999999998</v>
+        <v>11.79339</v>
       </c>
       <c r="H58">
-        <v>61.99</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2263,25 +2293,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
       <c r="E59" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G59" s="2">
-        <v>18.195515999999998</v>
+        <v>11.79339</v>
       </c>
       <c r="H59">
-        <v>61.99</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,25 +2319,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
         <v>34</v>
       </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3</v>
-      </c>
       <c r="F60" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G60" s="2">
-        <v>18.195515999999998</v>
+        <v>11.79339</v>
       </c>
       <c r="H60">
-        <v>61.99</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2315,10 +2345,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
@@ -2341,16 +2371,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>103</v>
@@ -2367,16 +2397,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>103</v>
@@ -2393,25 +2423,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>101</v>
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
       </c>
       <c r="E64" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G64" s="2">
-        <v>14.25</v>
+        <v>18.195515999999998</v>
       </c>
       <c r="H64">
-        <v>34.99</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2419,25 +2449,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>101</v>
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
       </c>
       <c r="E65" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G65" s="2">
-        <v>14.25</v>
+        <v>18.195515999999998</v>
       </c>
       <c r="H65">
-        <v>34.99</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,25 +2475,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
       </c>
       <c r="E66" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G66" s="2">
-        <v>14.25</v>
+        <v>18.195515999999998</v>
       </c>
       <c r="H66">
-        <v>34.99</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2471,13 +2501,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>101</v>
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
@@ -2486,10 +2516,10 @@
         <v>103</v>
       </c>
       <c r="G67" s="2">
-        <v>11</v>
+        <v>18.195515999999998</v>
       </c>
       <c r="H67">
-        <v>27.99</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,25 +2527,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
       </c>
       <c r="E68" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G68" s="2">
-        <v>11</v>
+        <v>18.195515999999998</v>
       </c>
       <c r="H68">
-        <v>27.99</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2523,10 +2553,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>101</v>
@@ -2538,10 +2568,10 @@
         <v>103</v>
       </c>
       <c r="G69" s="2">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="H69">
-        <v>27.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,10 +2579,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>101</v>
@@ -2564,10 +2594,10 @@
         <v>103</v>
       </c>
       <c r="G70" s="2">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="H70">
-        <v>30.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2575,25 +2605,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E71" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G71" s="2">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="H71">
-        <v>30.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2601,25 +2631,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G72" s="2">
-        <v>11</v>
+        <v>14.25</v>
       </c>
       <c r="H72">
-        <v>30.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2627,10 +2657,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>101</v>
@@ -2642,10 +2672,10 @@
         <v>103</v>
       </c>
       <c r="G73" s="2">
-        <v>12.83</v>
+        <v>14.25</v>
       </c>
       <c r="H73">
-        <v>30.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2653,25 +2683,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E74" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G74" s="2">
-        <v>12.83</v>
+        <v>14.25</v>
       </c>
       <c r="H74">
-        <v>30.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,25 +2709,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E75" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G75" s="2">
-        <v>12.83</v>
+        <v>11</v>
       </c>
       <c r="H75">
-        <v>30.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2705,16 +2735,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E76" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>103</v>
@@ -2723,7 +2753,7 @@
         <v>11</v>
       </c>
       <c r="H76">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2731,16 +2761,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E77" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>103</v>
@@ -2749,7 +2779,7 @@
         <v>11</v>
       </c>
       <c r="H77">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2757,16 +2787,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E78" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>103</v>
@@ -2775,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="H78">
-        <v>27.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2783,25 +2813,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E79" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G79" s="2">
-        <v>9.1999999999999993</v>
+        <v>11</v>
       </c>
       <c r="H79">
-        <v>27.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2809,25 +2839,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E80" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G80" s="2">
-        <v>9.1999999999999993</v>
+        <v>11</v>
       </c>
       <c r="H80">
-        <v>27.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2835,25 +2865,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E81" s="3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G81" s="2">
-        <v>9.1999999999999993</v>
+        <v>12.83</v>
       </c>
       <c r="H81">
-        <v>27.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,25 +2891,25 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G82" s="2">
-        <v>9.8000000000000007</v>
+        <v>12.83</v>
       </c>
       <c r="H82">
-        <v>27.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2887,25 +2917,25 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E83" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G83" s="2">
-        <v>9.8000000000000007</v>
+        <v>12.83</v>
       </c>
       <c r="H83">
-        <v>27.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2913,25 +2943,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E84" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G84" s="2">
-        <v>9.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="H84">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2939,10 +2969,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>101</v>
@@ -2954,10 +2984,10 @@
         <v>103</v>
       </c>
       <c r="G85" s="2">
-        <v>9.1999999999999993</v>
+        <v>11</v>
       </c>
       <c r="H85">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2965,10 +2995,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>101</v>
@@ -2980,10 +3010,10 @@
         <v>103</v>
       </c>
       <c r="G86" s="2">
-        <v>9.1999999999999993</v>
+        <v>11</v>
       </c>
       <c r="H86">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2991,10 +3021,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>101</v>
@@ -3009,7 +3039,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H87">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3017,25 +3047,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G88" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H88">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3043,25 +3073,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G89" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H89">
-        <v>27.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3069,16 +3099,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E90" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>103</v>
@@ -3087,7 +3117,345 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H90">
-        <v>27.99</v>
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G91" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H91">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G92" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H92">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H93">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G94" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H94">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G95" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H95">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G96" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H96">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H97">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H98">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="3">
+        <v>9</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G99" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H99">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H100">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="3">
+        <v>13</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G101" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H101">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="3">
+        <v>6</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G102" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H102">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="3">
+        <v>7</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G103" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H103">
+        <v>34.99</v>
       </c>
     </row>
   </sheetData>
